--- a/spliced/falling/2023-03-25_18-01-10/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-10/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>0.7220227718353288</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1.128712320327757</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4.191518974304199</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.193370014429091</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-01-10/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-10/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.428671193122864</v>
+        <v>-2.236848592758179</v>
       </c>
       <c r="B2" t="n">
-        <v>3.703050696849823</v>
+        <v>3.817810773849488</v>
       </c>
       <c r="C2" t="n">
-        <v>1.323268264532089</v>
+        <v>1.356045484542847</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.461624765396118</v>
+        <v>-2.285426902770996</v>
       </c>
       <c r="B3" t="n">
-        <v>3.616514706611633</v>
+        <v>3.86536750793457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9642781019210801</v>
+        <v>1.423394083976746</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.319928169250488</v>
+        <v>-2.325414371490478</v>
       </c>
       <c r="B4" t="n">
-        <v>3.585709452629088</v>
+        <v>3.847443521022797</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5316097438335416</v>
+        <v>1.428170895576477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.305660724639893</v>
+        <v>-2.198427677154541</v>
       </c>
       <c r="B5" t="n">
-        <v>3.332286834716796</v>
+        <v>3.85212025642395</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07676682472228982</v>
+        <v>1.377349805831909</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.763672423362733</v>
+        <v>-2.239168739318848</v>
       </c>
       <c r="B6" t="n">
-        <v>2.987097477912901</v>
+        <v>3.77459921836853</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2520411491394069</v>
+        <v>1.236697590351105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.228790092468267</v>
+        <v>-2.284214735031127</v>
       </c>
       <c r="B7" t="n">
-        <v>2.132350564002988</v>
+        <v>3.738507509231567</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.067725944519043</v>
+        <v>1.190666794776917</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.195065975189209</v>
+        <v>-2.274757814407349</v>
       </c>
       <c r="B8" t="n">
-        <v>1.12532408237457</v>
+        <v>3.780967509746552</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.079952371120452</v>
+        <v>1.303351855278015</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.408200263977051</v>
+        <v>-2.355447578430176</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3617565631866455</v>
+        <v>3.771934032440186</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6209573745727539</v>
+        <v>1.401894807815552</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-5.044864058494567</v>
+        <v>-2.428671193122864</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9128529787063611</v>
+        <v>3.703050696849823</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.318287602066993</v>
+        <v>1.323268264532089</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.147526121139514</v>
+        <v>-2.461624765396118</v>
       </c>
       <c r="B11" t="n">
-        <v>2.947685408592233</v>
+        <v>3.616514706611633</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.418278175592428</v>
+        <v>0.9642781019210801</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.457507729530336</v>
+        <v>-2.319928169250488</v>
       </c>
       <c r="B12" t="n">
-        <v>2.719761490821837</v>
+        <v>3.585709452629088</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.574102157354357</v>
+        <v>0.5316097438335416</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-8.347633457183861</v>
+        <v>-2.305660724639893</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3747469902038705</v>
+        <v>3.332286834716796</v>
       </c>
       <c r="C13" t="n">
-        <v>2.810587501525903</v>
+        <v>0.07676682472228982</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-9.06434655189514</v>
+        <v>-2.763672423362733</v>
       </c>
       <c r="B14" t="n">
-        <v>2.370895385742192</v>
+        <v>2.987097477912901</v>
       </c>
       <c r="C14" t="n">
-        <v>2.526045709848401</v>
+        <v>-0.2520411491394069</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.765351390838669</v>
+        <v>-3.228790092468267</v>
       </c>
       <c r="B15" t="n">
-        <v>3.193235373497008</v>
+        <v>2.132350564002988</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3422038555145195</v>
+        <v>-1.067725944519043</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.5670121669769</v>
+        <v>-5.195065975189209</v>
       </c>
       <c r="B16" t="n">
-        <v>4.178837358951577</v>
+        <v>1.12532408237457</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5715423285961221</v>
+        <v>-1.079952371120452</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4724056243896478</v>
+        <v>-5.408200263977051</v>
       </c>
       <c r="B17" t="n">
-        <v>4.734174823760986</v>
+        <v>0.3617565631866455</v>
       </c>
       <c r="C17" t="n">
-        <v>2.432305717468271</v>
+        <v>-0.6209573745727539</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.06286396980285353</v>
+        <v>-5.044864058494567</v>
       </c>
       <c r="B18" t="n">
-        <v>4.10421558618545</v>
+        <v>0.9128529787063611</v>
       </c>
       <c r="C18" t="n">
-        <v>2.57377957105636</v>
+        <v>-0.318287602066993</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2147421836853027</v>
+        <v>-2.147526121139514</v>
       </c>
       <c r="B19" t="n">
-        <v>3.490234732627868</v>
+        <v>2.947685408592233</v>
       </c>
       <c r="C19" t="n">
-        <v>1.606800019741057</v>
+        <v>-1.418278175592428</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.000663757422473e-05</v>
+        <v>-2.457507729530336</v>
       </c>
       <c r="B20" t="n">
-        <v>4.117116189002994</v>
+        <v>2.719761490821837</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8414077341556527</v>
+        <v>-2.574102157354357</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-8.347633457183861</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.3747469902038705</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.810587501525903</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-9.06434655189514</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.370895385742192</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.526045709848401</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.765351390838669</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.193235373497008</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3422038555145195</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2.5670121669769</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.178837358951577</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5715423285961221</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.4724056243896478</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.734174823760986</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.432305717468271</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.06286396980285353</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.10421558618545</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.57377957105636</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.2147421836853027</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.490234732627868</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.606800019741057</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4.000663757422473e-05</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.117116189002994</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8414077341556527</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>0.6697305679321306</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B29" t="n">
         <v>4.689649581909178</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C29" t="n">
         <v>0.7220227718353288</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.128712320327757</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.191518974304199</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.193370014429091</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.9585402488708525</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.21038007736206</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.021172881126405</v>
       </c>
     </row>
   </sheetData>
